--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A655B78D-2CF7-4E00-BECD-76F504AF41B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9AACBF-B171-477C-BA3D-0F80E754C1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>オブジェクト指向問題　アクティビティ図</t>
     <rPh sb="6" eb="8">
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>（リフトダウン）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ループ？？？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -320,7 +316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,19 +329,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -357,32 +359,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2896,13 +2880,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124574</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2964,7 +2948,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3014,13 +2998,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3076,13 +3060,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>374</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3132,13 +3116,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3195,13 +3179,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>43725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3251,13 +3235,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3313,13 +3297,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3375,13 +3359,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3437,13 +3421,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3499,13 +3483,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3561,13 +3545,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>49875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3622,13 +3606,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3678,13 +3662,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3734,13 +3718,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3790,13 +3774,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3846,13 +3830,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>121875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3904,13 +3888,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3960,13 +3944,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>374</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4019,13 +4003,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4089,13 +4073,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>43725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4151,13 +4135,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4217,13 +4201,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4282,15 +4266,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4305,7 +4289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734049" y="10467975"/>
+          <a:off x="5724524" y="1800225"/>
           <a:ext cx="2905126" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -4373,13 +4357,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4435,13 +4419,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4517,13 +4501,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4579,13 +4563,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4641,13 +4625,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>134100</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4703,13 +4687,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>53250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9900</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4753,6 +4737,73 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD08FA1-5387-4618-B21E-2DD5BD31EED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1704975"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Car</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4875,8 +4926,13 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：車種</a:t>
-          </a:r>
+            <a:t>クラス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Car</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5328,13 +5384,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="74" idx="2"/>
           <a:endCxn id="76" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="30108525"/>
+          <a:off x="4800600" y="3667125"/>
           <a:ext cx="375" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5553,6 +5610,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="74" idx="1"/>
           <a:endCxn id="79" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -5598,8 +5656,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5611,19 +5669,20 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="91" idx="2"/>
           <a:endCxn id="74" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1">
-          <a:off x="1330875" y="33806850"/>
-          <a:ext cx="8701950" cy="1000500"/>
+          <a:off x="978450" y="7717875"/>
+          <a:ext cx="9406800" cy="1000500"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2627"/>
-            <a:gd name="adj2" fmla="val -138005"/>
+            <a:gd name="adj1" fmla="val -2430"/>
+            <a:gd name="adj2" fmla="val -206552"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5719,23 +5778,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="吹き出し: 円形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D87501-73B6-42FD-A137-340007741294}"/>
+        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679C2378-257C-47DC-8BF6-4069545D4359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5743,30 +5802,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734049" y="27374850"/>
-          <a:ext cx="2905126" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53524"/>
-            <a:gd name="adj2" fmla="val 26604"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="3990975" y="32204025"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -5776,93 +5831,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・車種名、定員、価格、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>加速度を入れておく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・価格は条件を満たすような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランダム値</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679C2378-257C-47DC-8BF6-4069545D4359}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="32204025"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>乗車人数を求める</a:t>
+            <a:t>計算：乗車人数</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6029,14 +5998,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>134100</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6051,7 +6020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5372100" y="37938075"/>
+          <a:off x="5372100" y="12201525"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6336,6 +6305,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="94" idx="3"/>
           <a:endCxn id="90" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -6395,7 +6365,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3057525" y="35994975"/>
+          <a:off x="3057525" y="8601075"/>
           <a:ext cx="742950" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6467,7 +6437,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5486400" y="35994975"/>
+          <a:off x="5486400" y="8601075"/>
           <a:ext cx="952500" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6542,7 +6512,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381249" y="37033199"/>
+          <a:off x="2381249" y="9639299"/>
           <a:ext cx="2105025" cy="1800225"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -6733,6 +6703,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="94" idx="1"/>
           <a:endCxn id="98" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -6789,12 +6760,13 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="98" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4486274" y="37928550"/>
+          <a:off x="4486274" y="10534650"/>
           <a:ext cx="895351" cy="4762"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -6844,6 +6816,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="78" idx="2"/>
           <a:endCxn id="94" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -6875,6 +6848,68 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形: 角を丸くする 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE834BF-D262-492B-87D6-C49FA8A366E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="11477625"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示：低下率</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11318,709 +11353,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308731-C669-4739-A7D1-BE7D37C01AED}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="A4" s="4"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="A6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A7" s="4"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="A8" s="4"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="4"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="4"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="A11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="A12" s="4"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="4"/>
+      <c r="C13" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="17" t="s">
+      <c r="D13" s="10"/>
+      <c r="K13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="4"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="A15" s="4"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="A16" s="4"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="A17" s="4"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="A18" s="4"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="A22" s="4"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="A23" s="4"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="A25" s="4"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="A26" s="4"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="A27" s="4"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="A28" s="4"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
+      <c r="A29" s="4"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="A30" s="4"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
+      <c r="A31" s="4"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="A32" s="4"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
+      <c r="A33" s="4"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
+      <c r="A34" s="4"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
+      <c r="A35" s="4"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
+      <c r="A36" s="4"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
+      <c r="A37" s="4"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
+      <c r="A38" s="4"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
+      <c r="A39" s="4"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="14"/>
+      <c r="A40" s="4"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
+      <c r="A41" s="4"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
+      <c r="A42" s="4"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="20"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12036,7 +11582,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F16AE2-F460-41B9-BAD2-CCD47B3B8B3E}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -12045,1182 +11591,379 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="A3" s="4"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
-        <v>5</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="A6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A7" s="4"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="A8" s="4"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="4"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="4"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="A11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="A12" s="4"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="A13" s="4"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="4"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="A15" s="4"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="A16" s="4"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="A17" s="4"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="A18" s="4"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="A22" s="4"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="A23" s="4"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="A25" s="4"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="A26" s="4"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="A27" s="4"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="A28" s="4"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
+      <c r="A29" s="4"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="A30" s="4"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
+      <c r="A31" s="4"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="A32" s="4"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
+      <c r="A33" s="4"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
+      <c r="A34" s="4"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
+      <c r="A35" s="4"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
+      <c r="A36" s="4"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
+      <c r="A37" s="4"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
+      <c r="A38" s="4"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
+      <c r="A39" s="4"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="14"/>
+      <c r="A40" s="4"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
+      <c r="A41" s="4"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
+      <c r="A42" s="4"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
+      <c r="A43" s="4"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="14"/>
+      <c r="A44" s="4"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
+      <c r="A45" s="4"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
+      <c r="A46" s="4"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="14"/>
+      <c r="A47" s="4"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="14"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="14"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="14"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="14"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="14"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="12"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="14"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="14"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="14"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="14"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="14"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="14"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="12"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="14"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="N62" s="5"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="12"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="14"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="N63" s="5"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="12"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="14"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="N64" s="5"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="14"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="N65" s="5"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="12"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="14"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="N66" s="5"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="12"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="14"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="N67" s="5"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="12"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="14"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="N68" s="5"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="14"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="N69" s="5"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="12"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="14"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="N70" s="5"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="12"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="13"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="14"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="N71" s="5"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="12"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="14"/>
-    </row>
-    <row r="73" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="18"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="19"/>
-      <c r="N73" s="20"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="N72" s="5"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="N73" s="5"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="N74" s="5"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="N75" s="5"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="4"/>
+      <c r="N76" s="5"/>
+    </row>
+    <row r="77" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="6"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13232,1007 +11975,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE2A26-9272-4786-8261-A87CBF6A0A54}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
+      <c r="A2" s="4"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="14"/>
+      <c r="A3" s="4"/>
+      <c r="N3" s="5"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="15" t="s">
-        <v>6</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="5"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
+      <c r="A5" s="4"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+      <c r="A6" s="4"/>
+      <c r="N6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A7" s="4"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="A8" s="4"/>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="4"/>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="A10" s="4"/>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="A11" s="4"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="A12" s="4"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="5"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="A13" s="4"/>
+      <c r="N13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
+      <c r="A14" s="4"/>
+      <c r="N14" s="5"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
+      <c r="A15" s="4"/>
+      <c r="N15" s="5"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
+      <c r="A16" s="4"/>
+      <c r="N16" s="5"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
+      <c r="A17" s="4"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
+      <c r="A18" s="4"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
+      <c r="A22" s="4"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="14"/>
+      <c r="A23" s="4"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
+      <c r="A25" s="4"/>
+      <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
+      <c r="A26" s="4"/>
+      <c r="N26" s="5"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
+      <c r="A27" s="4"/>
+      <c r="N27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="14"/>
+      <c r="A28" s="4"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
+      <c r="A29" s="4"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
+      <c r="A30" s="4"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
+      <c r="A31" s="4"/>
+      <c r="N31" s="5"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="14"/>
+      <c r="A32" s="4"/>
+      <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
+      <c r="A33" s="4"/>
+      <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="N34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="N35" s="5"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="14"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="N36" s="5"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="12"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="N39" s="5"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="14"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="N43" s="5"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="12"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="14"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="14"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="14"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="N48" s="5"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="14"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="N49" s="5"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="N50" s="5"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="14"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="14"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="N54" s="5"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="14"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="N55" s="5"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="12"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="14"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="N56" s="5"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="12"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="14"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="12"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="14"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="N58" s="5"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="14"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="N59" s="5"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="14"/>
+      <c r="A60" s="4"/>
+      <c r="N60" s="5"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="14"/>
+      <c r="A61" s="4"/>
+      <c r="N61" s="5"/>
     </row>
     <row r="62" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="18"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="20"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14257,22 +12311,22 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -14285,7 +12339,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="2"/>
     </row>
@@ -14319,10 +12373,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">

--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9AACBF-B171-477C-BA3D-0F80E754C1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C863E0-F9FA-4D71-8DA1-CD3FCF2D2825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -161,65 +161,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="9">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -316,8 +261,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -326,37 +274,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -366,6 +296,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4806,6 +4748,72 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 円形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68295D8-8674-496C-940A-5534E9E65C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724526" y="13277850"/>
+          <a:ext cx="2038350" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46639"/>
+            <a:gd name="adj2" fmla="val 62501"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>配列の値を使用する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7405,14 +7413,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>97500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7427,7 +7435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="16002000"/>
+          <a:off x="4657725" y="18659475"/>
           <a:ext cx="288000" cy="288000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7689,16 +7697,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>153525</xdr:rowOff>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7711,17 +7719,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="1"/>
-          <a:endCxn id="79" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1" flipV="1">
-          <a:off x="4419599" y="3524250"/>
-          <a:ext cx="238125" cy="12621750"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3990976" y="3524250"/>
+          <a:ext cx="428625" cy="11885250"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -1280000"/>
+            <a:gd name="adj1" fmla="val 708889"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7748,15 +7756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9900</xdr:colOff>
+      <xdr:colOff>374</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7768,19 +7776,20 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="91" idx="2"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="90" idx="2"/>
           <a:endCxn id="74" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-669375" y="9004125"/>
-          <a:ext cx="11330850" cy="371100"/>
+          <a:off x="-302663" y="8627887"/>
+          <a:ext cx="10587900" cy="380625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2018"/>
-            <a:gd name="adj2" fmla="val 924111"/>
+            <a:gd name="adj1" fmla="val -2159"/>
+            <a:gd name="adj2" fmla="val 900985"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8174,72 +8183,6 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：乗車人数</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134100</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="四角形: 角を丸くする 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ECC6F1-0F5A-4F47-BCB8-1A8574DE529E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="14135100"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -8249,9 +8192,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>加速性能</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示：加速性能</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8472,16 +8417,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>39225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>140925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8492,17 +8437,19 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="245" idx="3"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10973175" y="10078575"/>
-          <a:ext cx="144750" cy="3446925"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipV="1">
+          <a:off x="4945725" y="16838250"/>
+          <a:ext cx="665250" cy="1146075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -157927"/>
-            <a:gd name="adj2" fmla="val 52089"/>
+            <a:gd name="adj1" fmla="val 187339"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10727,7 +10674,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：乗車人数</a:t>
+            <a:t>計算：加速性能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11049,6 +10996,595 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F5DB9E5-5A31-44F9-84D0-108825458345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="15049500"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>レーススタート</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145125</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>2250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ひし形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839711ED-0FBE-420C-AC5A-4A12480054BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="17840325"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F466862-9036-48F5-A880-B82D07AFD964}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="17916525"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表示：レース結果</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FC091E-2201-4D5E-BB67-A95B08FAEC3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="15759975"/>
+          <a:ext cx="750" cy="2080350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>2250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA4CF98-CEEB-4823-8B71-F90B79379828}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800975" y="18128325"/>
+          <a:ext cx="750" cy="731175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C544AF3A-47FF-4906-A3E4-083C8AC94189}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="18636525"/>
+          <a:ext cx="750" cy="1213575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="テキスト ボックス 231">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE80D65-09E2-4C75-BD0F-AD4F0CA96B34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="18297525"/>
+          <a:ext cx="1047750" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全てゴール済</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="テキスト ボックス 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF51DBB-CF3F-4AFE-87AE-934AA1EA9DB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="17297400"/>
+          <a:ext cx="1714500" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全てゴールしていない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="四角形: 角を丸くする 244">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0AE11E-3D94-4C42-948E-AC4156CFD397}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="16487775"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>途中経過表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11360,213 +11896,213 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="5"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="N4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="C13" s="9" t="s">
+      <c r="A13" s="2"/>
+      <c r="C13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="K13" s="10" t="s">
+      <c r="D13" s="8"/>
+      <c r="K13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="N13" s="5"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="N16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="N22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="N23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="N24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="N26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="N28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="N30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="N32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="N34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="N36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="N37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="N38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="N39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="N40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="N41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="4"/>
-      <c r="N42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="8"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11591,373 +12127,373 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="N16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="N22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="N23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="N24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="N26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="N28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="N30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="N32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="N34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="N36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="N37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="N38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="N39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="N40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="N41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="4"/>
-      <c r="N42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="4"/>
-      <c r="N43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="4"/>
-      <c r="N44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
-      <c r="N45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="4"/>
-      <c r="N46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="N47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="N48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="N49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
-      <c r="N50" s="5"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="N51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="N52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
-      <c r="N53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="N54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="N55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
-      <c r="N56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3"/>
-      <c r="N57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="3"/>
-      <c r="N58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="3"/>
-      <c r="N59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="4"/>
-      <c r="B60" s="3"/>
-      <c r="N60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="B61" s="3"/>
-      <c r="N61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="4"/>
-      <c r="B62" s="3"/>
-      <c r="N62" s="5"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
+      <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="4"/>
-      <c r="B63" s="3"/>
-      <c r="N63" s="5"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
+      <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
-      <c r="N64" s="5"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
+      <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="4"/>
-      <c r="B65" s="3"/>
-      <c r="N65" s="5"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
+      <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="N66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
+      <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="N67" s="5"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
+      <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="3"/>
-      <c r="N68" s="5"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
+      <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="N69" s="5"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
+      <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="4"/>
-      <c r="B70" s="3"/>
-      <c r="N70" s="5"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
+      <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="N71" s="5"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
+      <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="4"/>
-      <c r="B72" s="3"/>
-      <c r="N72" s="5"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="1"/>
+      <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="4"/>
-      <c r="B73" s="3"/>
-      <c r="N73" s="5"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="1"/>
+      <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="N74" s="5"/>
+      <c r="A74" s="2"/>
+      <c r="B74" s="1"/>
+      <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="3"/>
-      <c r="N75" s="5"/>
+      <c r="A75" s="2"/>
+      <c r="B75" s="1"/>
+      <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="4"/>
-      <c r="N76" s="5"/>
+      <c r="A76" s="2"/>
+      <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="8"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11975,318 +12511,318 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE2A26-9272-4786-8261-A87CBF6A0A54}">
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="N2" s="5"/>
+      <c r="A2" s="2"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="4"/>
-      <c r="N3" s="5"/>
+      <c r="A3" s="2"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="4"/>
-      <c r="N5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="4"/>
-      <c r="N6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="A7" s="2"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
-      <c r="N8" s="5"/>
+      <c r="A8" s="2"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
-      <c r="N9" s="5"/>
+      <c r="A9" s="2"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="N10" s="5"/>
+      <c r="A10" s="2"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="N11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="N12" s="5"/>
+      <c r="A12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="N13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
-      <c r="N14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="N15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="N16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
-      <c r="N17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="4"/>
-      <c r="N18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="4"/>
-      <c r="N19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="N20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
-      <c r="N21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="4"/>
-      <c r="N22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="4"/>
-      <c r="N23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
-      <c r="N24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
-      <c r="N26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="N28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
-      <c r="N29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="N30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="N32" s="5"/>
+      <c r="A32" s="2"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="N33" s="5"/>
+      <c r="A33" s="2"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="N34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
-      <c r="N35" s="5"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="N36" s="5"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="N37" s="5"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="N38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3"/>
-      <c r="N39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
-      <c r="N40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="N41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-      <c r="N42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="N43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-      <c r="N44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="3"/>
-      <c r="N45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="3"/>
-      <c r="N46" s="5"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3"/>
-      <c r="N47" s="5"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="N48" s="5"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3"/>
-      <c r="N49" s="5"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
-      <c r="N50" s="5"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3"/>
-      <c r="N51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3"/>
-      <c r="N52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3"/>
-      <c r="N53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="3"/>
-      <c r="N54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="N55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
-      <c r="N56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="3"/>
-      <c r="N57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="3"/>
-      <c r="N58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="3"/>
-      <c r="N59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="4"/>
-      <c r="N60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="4"/>
-      <c r="N61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="8"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12302,296 +12838,1425 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9406D517-25AD-4FF9-AEB9-BCD234D599C2}">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="N2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="N3" s="2"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="2"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="N5" s="2"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="N6" s="2"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="N7" s="2"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="N8" s="2"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="N9" s="2"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="N10" s="2"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="N11" s="2"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="N12" s="2"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="N13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="N14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="N15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="N16" s="2"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="N17" s="2"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="N18" s="2"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="N19" s="2"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="N21" s="2"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="N22" s="2"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="N23" s="2"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="N24" s="2"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="N25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="N26" s="2"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="N27" s="2"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="N28" s="2"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="N29" s="2"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="N30" s="2"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="N31" s="2"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="N32" s="2"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="N33" s="2"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="N34" s="2"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="N35" s="2"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="N36" s="2"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="N37" s="2"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="N38" s="2"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="N39" s="2"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="N40" s="2"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="N41" s="2"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="N42" s="2"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3"/>
-      <c r="N43" s="2"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
-      <c r="B44" s="3"/>
-      <c r="N44" s="2"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-      <c r="B45" s="3"/>
-      <c r="N45" s="2"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="N46" s="2"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-      <c r="B47" s="3"/>
-      <c r="N47" s="2"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-      <c r="B48" s="3"/>
-      <c r="N48" s="2"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="N49" s="2"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="3"/>
-      <c r="N50" s="2"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="3"/>
-      <c r="N51" s="2"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="3"/>
-      <c r="N52" s="2"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="3"/>
-      <c r="N53" s="2"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="1"/>
-      <c r="B54" s="3"/>
-      <c r="N54" s="2"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="1"/>
-      <c r="B55" s="3"/>
-      <c r="N55" s="2"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="1"/>
-      <c r="B56" s="3"/>
-      <c r="N56" s="2"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="1"/>
-      <c r="B57" s="3"/>
-      <c r="N57" s="2"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="1"/>
-      <c r="B58" s="3"/>
-      <c r="N58" s="2"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="1"/>
-      <c r="B59" s="3"/>
-      <c r="N59" s="2"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C863E0-F9FA-4D71-8DA1-CD3FCF2D2825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FA0A2-881F-43BA-86F8-3A9A87B78275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -261,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -296,18 +296,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11889,7 +11877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308731-C669-4739-A7D1-BE7D37C01AED}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
@@ -12121,7 +12109,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12840,8 +12828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9406D517-25AD-4FF9-AEB9-BCD234D599C2}">
   <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12866,1380 +12854,379 @@
     </row>
     <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="12"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
       <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
+      <c r="B34" s="1"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
+      <c r="B35" s="1"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
+      <c r="B36" s="1"/>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
+      <c r="B37" s="1"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="B38" s="1"/>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
+      <c r="B39" s="1"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
+      <c r="B40" s="1"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
+      <c r="B41" s="1"/>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
+      <c r="B42" s="1"/>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
+      <c r="B43" s="1"/>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
+      <c r="B44" s="1"/>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
+      <c r="B45" s="1"/>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
+      <c r="B46" s="1"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
+      <c r="B47" s="1"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
+      <c r="B48" s="1"/>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
+      <c r="B49" s="1"/>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
+      <c r="B50" s="1"/>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
+      <c r="B51" s="1"/>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
+      <c r="B52" s="1"/>
       <c r="N52" s="3"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
+      <c r="B53" s="1"/>
       <c r="N53" s="3"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
+      <c r="B54" s="1"/>
       <c r="N54" s="3"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
+      <c r="B55" s="1"/>
       <c r="N55" s="3"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
+      <c r="B56" s="1"/>
       <c r="N56" s="3"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
+      <c r="B57" s="1"/>
       <c r="N57" s="3"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
+      <c r="B58" s="1"/>
       <c r="N58" s="3"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
+      <c r="B59" s="1"/>
       <c r="N59" s="3"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="12"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
       <c r="N72" s="3"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A73" s="2"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
       <c r="N73" s="3"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A74" s="2"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
       <c r="N74" s="3"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A75" s="2"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="12"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
       <c r="N75" s="3"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A76" s="2"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
       <c r="N76" s="3"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A77" s="2"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
       <c r="N77" s="3"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A78" s="2"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
       <c r="N78" s="3"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A79" s="2"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="12"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="12"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="12"/>
       <c r="N79" s="3"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A80" s="2"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
       <c r="N80" s="3"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A81" s="2"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
       <c r="N81" s="3"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" s="2"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
       <c r="N82" s="3"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" s="2"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
       <c r="N83" s="3"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" s="2"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
       <c r="N84" s="3"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" s="2"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
       <c r="N85" s="3"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" s="2"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
       <c r="N86" s="3"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A87" s="2"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="12"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
       <c r="N87" s="3"/>
     </row>
     <row r="88" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">

--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48FA0A2-881F-43BA-86F8-3A9A87B78275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26647271-6DA8-4418-81E6-D8F1A2E149F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
@@ -7744,15 +7744,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7771,13 +7771,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-302663" y="8627887"/>
-          <a:ext cx="10587900" cy="380625"/>
+          <a:off x="-157163" y="8482012"/>
+          <a:ext cx="10306050" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2159"/>
-            <a:gd name="adj2" fmla="val 900985"/>
+            <a:gd name="adj1" fmla="val -2218"/>
+            <a:gd name="adj2" fmla="val 925640"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8119,16 +8119,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8143,8 +8143,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="13392150"/>
-          <a:ext cx="1620000" cy="720000"/>
+          <a:off x="4752975" y="13696950"/>
+          <a:ext cx="114300" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -8170,18 +8170,6 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>表示：加速性能</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -10551,8 +10539,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>153525</xdr:rowOff>
     </xdr:from>
@@ -10560,7 +10548,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>140925</xdr:rowOff>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10572,18 +10560,19 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="193" idx="3"/>
           <a:endCxn id="90" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5610975" y="10669125"/>
-          <a:ext cx="706350" cy="3083025"/>
+          <a:off x="4867275" y="10659600"/>
+          <a:ext cx="1450050" cy="3099263"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -175303"/>
+            <a:gd name="adj1" fmla="val -76854"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10880,10 +10869,10 @@
       <xdr:rowOff>219073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>140924</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10895,14 +10884,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="197" idx="2"/>
           <a:endCxn id="90" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3037068" y="12798242"/>
-          <a:ext cx="1350601" cy="557213"/>
+          <a:off x="3409949" y="12415836"/>
+          <a:ext cx="1366839" cy="1319213"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10931,15 +10921,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>376</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>15149</xdr:rowOff>
+      <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10951,14 +10941,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="220" idx="2"/>
           <a:endCxn id="90" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4889513" y="12109087"/>
-          <a:ext cx="1194525" cy="1371600"/>
+          <a:off x="4736925" y="12261300"/>
+          <a:ext cx="1508850" cy="1362450"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -12109,7 +12100,7 @@
   <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12500,7 +12491,7 @@
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26647271-6DA8-4418-81E6-D8F1A2E149F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311749C-5E1D-4FFF-AA2B-42BEDFAF68EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
@@ -2809,22 +2809,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>124574</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="四角形: 角を丸くする 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C739512A-4447-4EB1-8AAC-5A2AF3706974}"/>
+        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76414C8F-E7F5-4A10-9D77-EAECDBA3E40C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2832,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990974" y="11477625"/>
+          <a:off x="3990975" y="12668250"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2861,7 +2861,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：車種</a:t>
+            <a:t>配列作成：台数</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2871,34 +2871,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145125</xdr:rowOff>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8E72A9-CF67-4AC9-B3C4-F0CB00395BF9}"/>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBF7E96-09D9-4AF3-8F6D-DC22F1213789}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="4"/>
-          <a:endCxn id="36" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="38" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800974" y="10898850"/>
-          <a:ext cx="751" cy="578775"/>
+        <a:xfrm>
+          <a:off x="4800975" y="2424975"/>
+          <a:ext cx="0" cy="708750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2926,23 +2927,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="四角形: 角を丸くする 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76414C8F-E7F5-4A10-9D77-EAECDBA3E40C}"/>
+        <xdr:cNvPr id="44" name="フローチャート: 準備 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9B0EBA-B334-4B70-AE24-B8A33449ABE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,10 +2951,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="12668250"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="4419600" y="14563725"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -2978,9 +2979,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：台数</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i&lt;3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2989,34 +2991,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EBF7E96-09D9-4AF3-8F6D-DC22F1213789}"/>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B15B78-0437-495A-967C-8ECD9FA72C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="36" idx="2"/>
-          <a:endCxn id="38" idx="0"/>
+          <a:stCxn id="61" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800974" y="12197625"/>
-          <a:ext cx="1" cy="470625"/>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="14131200"/>
+          <a:ext cx="375" cy="432525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3044,23 +3046,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="フローチャート: 準備 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9B0EBA-B334-4B70-AE24-B8A33449ABE8}"/>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44778FF9-CC77-430D-BA1D-B392C066969A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3068,10 +3070,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="14563725"/>
-          <a:ext cx="762000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPreparation">
+          <a:off x="3990975" y="15516225"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -3096,10 +3098,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i&lt;3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インスタンス作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3107,79 +3108,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B15B78-0437-495A-967C-8ECD9FA72C3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="61" idx="2"/>
-          <a:endCxn id="44" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800600" y="14131200"/>
-          <a:ext cx="375" cy="432525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44778FF9-CC77-430D-BA1D-B392C066969A}"/>
+        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336DEF0B-B55F-43E4-8B0E-AC5907670AAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3187,7 +3132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="15516225"/>
+          <a:off x="3990975" y="16944975"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3216,7 +3161,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インスタンス作成</a:t>
+            <a:t>生産台数を求める</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3227,21 +3172,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="四角形: 角を丸くする 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336DEF0B-B55F-43E4-8B0E-AC5907670AAB}"/>
+        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF3A152-8097-4F65-9C96-F95AE100AAD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3249,7 +3194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="16944975"/>
+          <a:off x="3990975" y="18849975"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3278,7 +3223,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>生産台数を求める</a:t>
+            <a:t>表示：台数、金額</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3289,21 +3234,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="四角形: 角を丸くする 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF3A152-8097-4F65-9C96-F95AE100AAD9}"/>
+        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395FC6F2-BFC8-4B94-AA79-217C24DBCB3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3256,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="18849975"/>
+          <a:off x="3990975" y="20278725"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3340,7 +3285,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：台数、金額</a:t>
+            <a:t>各配列に入れる</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3351,21 +3296,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="四角形: 角を丸くする 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{395FC6F2-BFC8-4B94-AA79-217C24DBCB3B}"/>
+        <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBEED61-4A98-41AF-B8A3-31C577C17E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="20278725"/>
+          <a:off x="3990975" y="21707475"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3402,7 +3347,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>各配列に入れる</a:t>
+            <a:t>計算：合計金額</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3411,23 +3356,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145125</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>49875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="四角形: 角を丸くする 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBEED61-4A98-41AF-B8A3-31C577C17E2A}"/>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D44718B-C58B-4E05-A581-B63C1FDC8D42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3435,23 +3380,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="21707475"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
+          <a:off x="4657725" y="25993725"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3464,7 +3408,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：合計金額</a:t>
+            <a:t>終</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3473,23 +3417,420 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2018943A-04C5-4183-85EB-B106023D1C5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="46" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="14868525"/>
+          <a:ext cx="375" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20440E2-CD90-4775-B0D7-C88DDC468E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="16236225"/>
+          <a:ext cx="0" cy="708750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0C499C-A952-4ABD-9E1F-6D51B3B6AE1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="48" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="18407925"/>
+          <a:ext cx="0" cy="442050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E45C669-7E19-4DAF-9A27-EA2A343C2070}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="48" idx="2"/>
+          <a:endCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="19569975"/>
+          <a:ext cx="0" cy="708750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04753127-674F-4BF8-ADF1-C2697167B962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="50" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3990976" y="14716125"/>
+          <a:ext cx="428625" cy="7351350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 551111"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EB6ADB-8DB3-48FC-88E6-95FB27009290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="68" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="23170425"/>
+          <a:ext cx="0" cy="699225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>374</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1CB566-15F7-4D36-9AE9-E582D0523416}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1849987" y="17667112"/>
+          <a:ext cx="6282600" cy="380625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3937"/>
+            <a:gd name="adj2" fmla="val 725813"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>49875</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="楕円 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D44718B-C58B-4E05-A581-B63C1FDC8D42}"/>
+        <xdr:cNvPr id="60" name="吹き出し: 円形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A583231E-4BF6-400E-B9C2-B245D61FE51A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,25 +3838,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4657725" y="25993725"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
+          <a:off x="5343525" y="14211300"/>
+          <a:ext cx="1181100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46639"/>
+            <a:gd name="adj2" fmla="val 62501"/>
+          </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3524,8 +3870,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終</a:t>
+            <a:t>スタート</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3534,420 +3884,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2018943A-04C5-4183-85EB-B106023D1C5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="2"/>
-          <a:endCxn id="46" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800600" y="14868525"/>
-          <a:ext cx="375" cy="647700"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A20440E2-CD90-4775-B0D7-C88DDC468E67}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="46" idx="2"/>
-          <a:endCxn id="47" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800975" y="16236225"/>
-          <a:ext cx="0" cy="708750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="直線矢印コネクタ 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C0C499C-A952-4ABD-9E1F-6D51B3B6AE1F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="65" idx="2"/>
-          <a:endCxn id="48" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800975" y="18407925"/>
-          <a:ext cx="0" cy="442050"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E45C669-7E19-4DAF-9A27-EA2A343C2070}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="48" idx="2"/>
-          <a:endCxn id="49" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800975" y="19569975"/>
-          <a:ext cx="0" cy="708750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>121875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04753127-674F-4BF8-ADF1-C2697167B962}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="1"/>
-          <a:endCxn id="50" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3990976" y="14716125"/>
-          <a:ext cx="428625" cy="7351350"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 551111"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5EB6ADB-8DB3-48FC-88E6-95FB27009290}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="2"/>
-          <a:endCxn id="68" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800975" y="23170425"/>
-          <a:ext cx="0" cy="699225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="コネクタ: カギ線 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1CB566-15F7-4D36-9AE9-E582D0523416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="2"/>
-          <a:endCxn id="44" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1849987" y="17667112"/>
-          <a:ext cx="6282600" cy="380625"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -3937"/>
-            <a:gd name="adj2" fmla="val 725813"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="吹き出し: 円形 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A583231E-4BF6-400E-B9C2-B245D61FE51A}"/>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB36873-87A0-4EFC-89E5-40864C682FB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3955,7 +3908,69 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="14211300"/>
+          <a:off x="3990975" y="13411200"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>配列作成：金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="吹き出し: 円形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BC3C99-7D67-47B1-93FA-6A535344165D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="12363450"/>
           <a:ext cx="1181100" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
@@ -3987,12 +4002,8 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>スタート</a:t>
+            <a:t>空</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4001,23 +4012,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43725</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB36873-87A0-4EFC-89E5-40864C682FB5}"/>
+        <xdr:cNvPr id="63" name="吹き出し: 円形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE81B131-D634-4529-91EE-291EF9C301F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4025,26 +4036,30 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="13411200"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
+          <a:off x="5648325" y="13163550"/>
+          <a:ext cx="1181100" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46639"/>
+            <a:gd name="adj2" fmla="val 62501"/>
+          </a:avLst>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -4054,7 +4069,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：金額</a:t>
+            <a:t>空</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4063,23 +4078,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="吹き出し: 円形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BC3C99-7D67-47B1-93FA-6A535344165D}"/>
+        <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1884AC96-C4E0-4901-9978-F880E1FDE3DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,8 +4102,70 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="12363450"/>
-          <a:ext cx="1181100" cy="342900"/>
+          <a:off x="3990975" y="17687925"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>金額を求める</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="吹き出し: 円形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C9FBD8-6E38-44A8-AB59-45FB5E1AF679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5667374" y="16506825"/>
+          <a:ext cx="2371725" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -4120,7 +4197,23 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
+            <a:t>ランダム値：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>50</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>台</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4129,23 +4222,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="吹き出し: 円形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE81B131-D634-4529-91EE-291EF9C301F9}"/>
+        <xdr:cNvPr id="67" name="四角形: 角を丸くする 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06992B4-FC7C-4B33-BCAC-A792C428EEBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4153,8 +4246,317 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5648325" y="13163550"/>
-          <a:ext cx="1181100" cy="342900"/>
+          <a:off x="3990975" y="22450425"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>計算：平均金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="四角形: 角を丸くする 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AF1F38-8015-40B4-BB48-CA10283D2A1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="23869650"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示：合計金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="四角形: 角を丸くする 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7193ED-0776-4E4B-8CCB-7257E12C846B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="24612600"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>表示：平均金額</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>53250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9900</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A10801F-EFFF-4CC7-B9C1-75847EE3EE0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="51" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4801725" y="25332600"/>
+          <a:ext cx="8775" cy="661125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD08FA1-5387-4618-B21E-2DD5BD31EED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="1704975"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クラス：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Car</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 円形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68295D8-8674-496C-940A-5534E9E65C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5724526" y="13277850"/>
+          <a:ext cx="2038350" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
@@ -4186,7 +4588,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>空</a:t>
+            <a:t>配列の値を使用する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4195,455 +4597,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="吹き出し: 円形 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CB586A-7709-48FB-9B69-4BDBB877C7D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5724524" y="1800225"/>
-          <a:ext cx="2905126" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53524"/>
-            <a:gd name="adj2" fmla="val 26604"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・車種名、定員、価格、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>加速度を入れておく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・価格は条件を満たすような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランダム値</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="四角形: 角を丸くする 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1884AC96-C4E0-4901-9978-F880E1FDE3DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="17687925"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>金額を求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="吹き出し: 円形 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C9FBD8-6E38-44A8-AB59-45FB5E1AF679}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5667374" y="16506825"/>
-          <a:ext cx="2371725" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46639"/>
-            <a:gd name="adj2" fmla="val 62501"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランダム値：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>10</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>～</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>50</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>台</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="四角形: 角を丸くする 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06992B4-FC7C-4B33-BCAC-A792C428EEBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="22450425"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：平均金額</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="四角形: 角を丸くする 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92AF1F38-8015-40B4-BB48-CA10283D2A1E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="23869650"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：合計金額</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>134100</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="四角形: 角を丸くする 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7193ED-0776-4E4B-8CCB-7257E12C846B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4000500" y="24612600"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>表示：平均金額</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>145125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>53250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9900</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線矢印コネクタ 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A10801F-EFFF-4CC7-B9C1-75847EE3EE0B}"/>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A038D0A2-635F-4467-958E-BD1CE09EA5C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="51" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="35" idx="4"/>
+          <a:endCxn id="2" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4801725" y="25332600"/>
-          <a:ext cx="8775" cy="661125"/>
+          <a:off x="4800975" y="1364325"/>
+          <a:ext cx="750" cy="340650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4667,139 +4650,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD08FA1-5387-4618-B21E-2DD5BD31EED1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="1704975"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クラス：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Car</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 円形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E68295D8-8674-496C-940A-5534E9E65C6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5724526" y="13277850"/>
-          <a:ext cx="2038350" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -46639"/>
-            <a:gd name="adj2" fmla="val 62501"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列の値を使用する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6975,23 +6825,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124574</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="四角形: 角を丸くする 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D6A337E-C07E-48E2-BAA6-BFE982905E18}"/>
+        <xdr:cNvPr id="74" name="フローチャート: 準備 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331A0EA3-1884-4C0A-BBC2-3103E339A7DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6999,10 +6849,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990974" y="28384500"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="4419600" y="29803725"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -7027,9 +6877,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：車種</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i&lt;3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7038,34 +6889,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>374</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>145125</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{008D8D7B-B32C-4EA6-8D3C-5C152BA806EB}"/>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4016256-7978-4F6B-9AD9-C982E052D83B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="4"/>
-          <a:endCxn id="72" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:endCxn id="74" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4800974" y="27805725"/>
-          <a:ext cx="751" cy="578775"/>
+          <a:off x="4800600" y="29104500"/>
+          <a:ext cx="374" cy="699225"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7093,23 +6944,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="フローチャート: 準備 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331A0EA3-1884-4C0A-BBC2-3103E339A7DF}"/>
+        <xdr:cNvPr id="76" name="四角形: 角を丸くする 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2B7F7F-B173-4E1C-80A7-AC5DAEAC4FE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7117,10 +6968,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="29803725"/>
-          <a:ext cx="762000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPreparation">
+          <a:off x="3990975" y="30756225"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -7145,10 +6996,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i&lt;3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インスタンス作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7156,80 +7006,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="75" name="直線矢印コネクタ 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4016256-7978-4F6B-9AD9-C982E052D83B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="72" idx="2"/>
-          <a:endCxn id="74" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800600" y="29104500"/>
-          <a:ext cx="374" cy="699225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="四角形: 角を丸くする 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A2B7F7F-B173-4E1C-80A7-AC5DAEAC4FE1}"/>
+        <xdr:cNvPr id="77" name="四角形: 角を丸くする 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5307E586-C008-4200-A9AE-069E56094BD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7237,7 +7030,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="30756225"/>
+          <a:off x="3990975" y="33375600"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7266,7 +7059,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インスタンス作成</a:t>
+            <a:t>計算：低下率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7277,21 +7070,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="四角形: 角を丸くする 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5307E586-C008-4200-A9AE-069E56094BD0}"/>
+        <xdr:cNvPr id="78" name="四角形: 角を丸くする 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514B7240-00D9-4155-A8EC-B17B1ADE7C18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7299,7 +7092,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="33375600"/>
+          <a:off x="3990975" y="34804350"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -7328,7 +7121,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：低下率</a:t>
+            <a:t>計算：加速性能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7337,23 +7130,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145125</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>97500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="四角形: 角を丸くする 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514B7240-00D9-4155-A8EC-B17B1ADE7C18}"/>
+        <xdr:cNvPr id="79" name="楕円 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B65BEE9-A59D-45B7-8977-A3A328D51095}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7361,23 +7154,22 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="34804350"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
+          <a:off x="4657725" y="18659475"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="1">
           <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -7390,7 +7182,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：加速性能</a:t>
+            <a:t>終</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7399,76 +7191,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>97500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="楕円 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B65BEE9-A59D-45B7-8977-A3A328D51095}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4657725" y="18659475"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>終</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7518,13 +7249,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7575,13 +7306,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7631,13 +7362,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7687,13 +7418,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7745,13 +7476,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7805,13 +7536,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7873,23 +7604,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="吹き出し: 円形 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{218C5905-CA48-47D9-9143-632EFFB44B3A}"/>
+        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D3D353-175D-41D7-A232-B9F530328A31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7897,30 +7628,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734049" y="27374850"/>
-          <a:ext cx="2905126" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53524"/>
-            <a:gd name="adj2" fmla="val 26604"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="3990975" y="32204025"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -7930,31 +7657,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・車種名、定員、価格、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>加速度を入れておく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・価格は条件を満たすような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランダム値</a:t>
+            <a:t>乗車人数を求める</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7963,77 +7666,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="四角形: 角を丸くする 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D3D353-175D-41D7-A232-B9F530328A31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="32204025"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>乗車人数を求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8121,13 +7762,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8182,13 +7823,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8253,13 +7894,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8335,13 +7976,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>49875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8395,13 +8036,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>140925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:colOff>115050</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>96375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8415,17 +8056,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="245" idx="3"/>
+          <a:endCxn id="8" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="4945725" y="16838250"/>
-          <a:ext cx="665250" cy="1146075"/>
+          <a:ext cx="655725" cy="2574825"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 187339"/>
+            <a:gd name="adj1" fmla="val 197323"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -8453,13 +8094,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8525,13 +8166,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8600,13 +8241,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8794,13 +8435,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>143999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8908,23 +8549,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124574</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="四角形: 角を丸くする 170">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45046A21-9D58-436A-9985-BBE8028D03A0}"/>
+        <xdr:cNvPr id="173" name="フローチャート: 準備 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E514994E-1F7E-43B0-A439-AFAE1BEEAD9E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8932,10 +8573,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990974" y="28384500"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="4419600" y="29803725"/>
+          <a:ext cx="762000" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartPreparation">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -8960,9 +8601,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>配列作成：車種</a:t>
-          </a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>i&lt;4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8971,34 +8613,35 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>145125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="172" name="直線矢印コネクタ 171">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{748A0AE9-39BC-4C86-8996-98F78EC437BD}"/>
+        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BA7FD7-885A-41A1-B592-A5C0339447FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="170" idx="4"/>
-          <a:endCxn id="171" idx="0"/>
+          <a:endCxn id="173" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4800974" y="27805725"/>
-          <a:ext cx="751" cy="578775"/>
+          <a:off x="4800600" y="1364325"/>
+          <a:ext cx="1125" cy="1283625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9026,23 +8669,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="フローチャート: 準備 172">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E514994E-1F7E-43B0-A439-AFAE1BEEAD9E}"/>
+        <xdr:cNvPr id="175" name="四角形: 角を丸くする 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B610F6DE-5E63-403C-B64E-5595E6CF73C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9050,10 +8693,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="29803725"/>
-          <a:ext cx="762000" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartPreparation">
+          <a:off x="3990975" y="30756225"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="19050"/>
@@ -9078,10 +8721,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>i&lt;4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>インスタンス作成</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9089,80 +8731,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>374</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="174" name="直線矢印コネクタ 173">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8BA7FD7-885A-41A1-B592-A5C0339447FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="171" idx="2"/>
-          <a:endCxn id="173" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800600" y="29104500"/>
-          <a:ext cx="374" cy="699225"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="四角形: 角を丸くする 174">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B610F6DE-5E63-403C-B64E-5595E6CF73C9}"/>
+        <xdr:cNvPr id="176" name="四角形: 角を丸くする 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCA9498-DD5F-42BF-BEDF-4820BB9C5955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9170,7 +8755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="30756225"/>
+          <a:off x="3990975" y="33375600"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9199,7 +8784,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>インスタンス作成</a:t>
+            <a:t>計算：低下率</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9210,21 +8795,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="四角形: 角を丸くする 175">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBCA9498-DD5F-42BF-BEDF-4820BB9C5955}"/>
+        <xdr:cNvPr id="177" name="四角形: 角を丸くする 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945D6CD-5CE4-4F1C-BF03-411F7124FF2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9232,7 +8817,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3990975" y="33375600"/>
+          <a:off x="3990975" y="34804350"/>
           <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -9261,7 +8846,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：低下率</a:t>
+            <a:t>計算：加速性能</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9270,77 +8855,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="四角形: 角を丸くする 176">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7945D6CD-5CE4-4F1C-BF03-411F7124FF2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="34804350"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>計算：加速性能</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9390,13 +8913,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9447,13 +8970,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9503,13 +9026,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -9559,13 +9082,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9627,23 +9150,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="吹き出し: 円形 185">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D406BDE-6910-40C9-9E66-0F382DBD9793}"/>
+        <xdr:cNvPr id="187" name="四角形: 角を丸くする 186">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14DF771-006C-44E2-8D6A-3756CE5A6BAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9651,30 +9174,26 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734049" y="27374850"/>
-          <a:ext cx="2905126" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -53524"/>
-            <a:gd name="adj2" fmla="val 26604"/>
-          </a:avLst>
-        </a:prstGeom>
+          <a:off x="3990975" y="32204025"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -9684,31 +9203,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・車種名、定員、価格、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>加速度を入れておく</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・価格は条件を満たすような</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ランダム値</a:t>
+            <a:t>乗車人数を求める</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9717,77 +9212,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="四角形: 角を丸くする 186">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F14DF771-006C-44E2-8D6A-3756CE5A6BAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="32204025"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>乗車人数を求める</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9875,13 +9308,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9946,13 +9379,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10028,13 +9461,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10088,13 +9521,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10160,13 +9593,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10235,13 +9668,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>323849</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371474</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10429,13 +9862,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10485,13 +9918,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10541,13 +9974,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>153525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10600,13 +10033,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10662,13 +10095,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>59400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10718,13 +10151,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10790,13 +10223,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10865,13 +10298,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>4762</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>219073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10922,13 +10355,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10981,13 +10414,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11054,13 +10487,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>2250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11114,13 +10547,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11187,13 +10620,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11206,14 +10639,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
+          <a:stCxn id="245" idx="2"/>
           <a:endCxn id="9" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800975" y="15759975"/>
-          <a:ext cx="750" cy="2080350"/>
+          <a:off x="4800975" y="18627000"/>
+          <a:ext cx="750" cy="642075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11243,13 +10676,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>2250</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11262,14 +10695,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
+          <a:stCxn id="2" idx="2"/>
           <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800975" y="18128325"/>
-          <a:ext cx="750" cy="731175"/>
+        <a:xfrm>
+          <a:off x="4800975" y="19322325"/>
+          <a:ext cx="0" cy="727800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11299,13 +10732,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -11355,14 +10788,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11377,7 +10810,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="18297525"/>
+          <a:off x="3657600" y="18183225"/>
           <a:ext cx="1047750" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11425,15 +10858,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11448,7 +10881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6419850" y="17297400"/>
+          <a:off x="6334125" y="17802225"/>
           <a:ext cx="1714500" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11497,13 +10930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11564,6 +10997,344 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8DE575-0DE6-448D-A8AD-1FFA86223912}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="18602325"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>順位を求める</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>2250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9678161E-72E7-4ABA-9594-5FE5D3F9C9D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800975" y="18128325"/>
+          <a:ext cx="750" cy="474000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>115050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A79CA28-8919-4A65-AE1A-F34132F51BF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="16478250"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>アクセル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ブレーキ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676650</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>24675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863C5D21-57BF-48DD-8990-5D6B57E173E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="2"/>
+          <a:endCxn id="245" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791450" y="17198250"/>
+          <a:ext cx="9525" cy="708750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676650</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12114FFE-5D7A-4B14-8842-2F7F9A0BDAE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4791450" y="15759975"/>
+          <a:ext cx="9525" cy="718275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12097,727 +11868,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F16AE2-F460-41B9-BAD2-CCD47B3B8B3E}">
-  <dimension ref="A1:N77"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="1"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="1"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="1"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="1"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="1"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="1"/>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="1"/>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="1"/>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="K16:L16"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE2A26-9272-4786-8261-A87CBF6A0A54}">
-  <dimension ref="A1:N62"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="1"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="1"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="1"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="1"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="1"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="1"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="1"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="1"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="1"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="1"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="1"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="1"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="1"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="1"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="1"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="1"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="K12:L12"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9406D517-25AD-4FF9-AEB9-BCD234D599C2}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N1"/>
@@ -12854,7 +11905,7 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -12980,52 +12031,42 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
       <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
       <c r="N37" s="3"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
@@ -13110,131 +12151,83 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A69" s="2"/>
+      <c r="B69" s="1"/>
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A70" s="2"/>
+      <c r="B70" s="1"/>
       <c r="N70" s="3"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A71" s="2"/>
+      <c r="B71" s="1"/>
       <c r="N71" s="3"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A72" s="2"/>
       <c r="N72" s="3"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A74" s="2"/>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A78" s="2"/>
-      <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A79" s="2"/>
-      <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A80" s="2"/>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" s="2"/>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" s="2"/>
-      <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A83" s="2"/>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" s="2"/>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" s="2"/>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" s="2"/>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" s="2"/>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="6"/>
+    <row r="73" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="4"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+      <c r="N73" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13246,4 +12239,798 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0CE2A26-9272-4786-8261-A87CBF6A0A54}">
+  <dimension ref="A1:N62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="1"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="K12:L12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9406D517-25AD-4FF9-AEB9-BCD234D599C2}">
+  <dimension ref="A1:N96"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="2"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" s="2"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="2"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" s="2"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" s="2"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" s="2"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" s="2"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" s="2"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" s="2"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" s="2"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" s="2"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" s="2"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" s="2"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="2"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A18" s="2"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A19" s="2"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A20" s="2"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="2"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A26" s="2"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="2"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="2"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="2"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="2"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="2"/>
+      <c r="B33" s="1"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="2"/>
+      <c r="B34" s="1"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A36" s="2"/>
+      <c r="B36" s="1"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="1"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A41" s="2"/>
+      <c r="B41" s="1"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="1"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A88" s="2"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A92" s="2"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A94" s="2"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A95" s="2"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K9:L9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/アクティビティ図.xlsx
+++ b/アクティビティ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamada\Desktop\object-orientation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A311749C-5E1D-4FFF-AA2B-42BEDFAF68EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99CC2CA-17E1-447E-9476-588D7781883F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{B6EDC074-AA86-4A49-A1C7-4ED4ED1D9C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Q2" sheetId="1" r:id="rId1"/>
@@ -7132,13 +7132,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>97500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7424,7 +7424,7 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -7475,15 +7475,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>374</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7496,19 +7496,19 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks/>
-          <a:stCxn id="90" idx="2"/>
+          <a:stCxn id="14" idx="2"/>
           <a:endCxn id="74" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="-157163" y="8482012"/>
-          <a:ext cx="10306050" cy="371475"/>
+          <a:off x="-1726651" y="9327975"/>
+          <a:ext cx="13435875" cy="380625"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2218"/>
-            <a:gd name="adj2" fmla="val 925640"/>
+            <a:gd name="adj1" fmla="val -1701"/>
+            <a:gd name="adj2" fmla="val 900985"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -7760,16 +7760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>234224</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7784,8 +7784,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="13696950"/>
-          <a:ext cx="114300" cy="123825"/>
+          <a:off x="3990975" y="12401549"/>
+          <a:ext cx="1620000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -7811,6 +7811,12 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>レーススタート</a:t>
+          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
           </a:endParaRPr>
@@ -8030,64 +8036,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>140925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>115050</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>96375</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="95" name="コネクタ: カギ線 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A11D85A5-0CFE-415F-8618-A92682F173D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="8" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4945725" y="16838250"/>
-          <a:ext cx="655725" cy="2574825"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 197323"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -9972,16 +9920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>153525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10000,12 +9948,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4867275" y="10659600"/>
-          <a:ext cx="1450050" cy="3099263"/>
+          <a:off x="5610975" y="9945225"/>
+          <a:ext cx="706350" cy="2816324"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -76854"/>
+            <a:gd name="adj1" fmla="val -32364"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -10297,15 +10245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>4761</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>219073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>112349</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10324,8 +10272,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3409949" y="12415836"/>
-          <a:ext cx="1366839" cy="1319213"/>
+          <a:off x="3170418" y="11940992"/>
+          <a:ext cx="1083900" cy="557213"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -10354,15 +10302,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>375</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10381,8 +10329,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4736925" y="12261300"/>
-          <a:ext cx="1508850" cy="1362450"/>
+          <a:off x="5022863" y="11251837"/>
+          <a:ext cx="927824" cy="1371600"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -10414,13 +10362,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>15150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10464,16 +10412,10 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
+            <a:rPr lang="ja-JP" altLang="en-US">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>レーススタート</a:t>
+            <a:t>順位を求める</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -10485,75 +10427,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>145125</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>2250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="ひし形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{839711ED-0FBE-420C-AC5A-4A12480054BD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4657725" y="17840325"/>
-          <a:ext cx="288000" cy="288000"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10620,33 +10502,34 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FC091E-2201-4D5E-BB67-A95B08FAEC3F}"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA4CF98-CEEB-4823-8B71-F90B79379828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="245" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
+          <a:cxnSpLocks/>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="10" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800975" y="18627000"/>
-          <a:ext cx="750" cy="642075"/>
+          <a:off x="4800975" y="18141225"/>
+          <a:ext cx="0" cy="1432650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10676,69 +10559,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>375</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FA4CF98-CEEB-4823-8B71-F90B79379828}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="10" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4800975" y="19322325"/>
-          <a:ext cx="0" cy="727800"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>24675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -10787,22 +10614,466 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="232" name="テキスト ボックス 231">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE80D65-09E2-4C75-BD0F-AD4F0CA96B34}"/>
+        <xdr:cNvPr id="3" name="四角形: 角を丸くする 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99DAEF7-13CD-49C3-BB8C-FDAC5B1C1AA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="13601700"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>アクセル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ブレーキ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145125</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>211800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ひし形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DC3BB6A-68C3-4CA4-A728-8BA6B286EDDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4657725" y="14716125"/>
+          <a:ext cx="288000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>15150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A10CA19-23F3-4253-8426-BD93C71B294D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="15516225"/>
+          <a:ext cx="1620000" cy="720000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>配列に代入</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="ja-JP">
+              <a:effectLst/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>（車名、記録）</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>234224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF59BD80-F725-49C5-AF42-721CC79E69D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="90" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="13121549"/>
+          <a:ext cx="0" cy="480151"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>5625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85366A23-1AFE-41F6-B06F-51337E25F827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800975" y="14321700"/>
+          <a:ext cx="750" cy="394425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>375</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>211800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A53DECF2-9195-4978-B0D1-634D5AF1C0AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="2"/>
+          <a:endCxn id="14" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800975" y="15004125"/>
+          <a:ext cx="750" cy="512100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>121875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>124575</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>67800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="コネクタ: カギ線 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A8BEDB4-F3B3-4AA2-A8F4-5491AE0603FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4945725" y="13961700"/>
+          <a:ext cx="665250" cy="898425"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 134363"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="テキスト ボックス 227">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B9CB51-0874-411F-A938-432F44C144F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10810,7 +11081,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3657600" y="18183225"/>
+          <a:off x="3590925" y="15135225"/>
           <a:ext cx="1047750" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10848,7 +11119,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全てゴール済</a:t>
+            <a:t>ゴール済</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -10857,23 +11128,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="テキスト ボックス 243">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF51DBB-CF3F-4AFE-87AE-934AA1EA9DB8}"/>
+        <xdr:cNvPr id="230" name="テキスト ボックス 229">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68FA3815-894D-4013-9236-5F2816ED749A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10881,8 +11152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6334125" y="17802225"/>
-          <a:ext cx="1714500" cy="257175"/>
+          <a:off x="5981700" y="14344650"/>
+          <a:ext cx="1047750" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10919,422 +11190,11 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>全てゴールしていない</a:t>
+            <a:t>ゴール前</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="四角形: 角を丸くする 244">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A0AE11E-3D94-4C42-948E-AC4156CFD397}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="16487775"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>途中経過表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>124575</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>5625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F8DE575-0DE6-448D-A8AD-1FFA86223912}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3990975" y="18602325"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>順位を求める</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>2250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1125</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9678161E-72E7-4ABA-9594-5FE5D3F9C9D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="2"/>
-          <a:endCxn id="2" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4800975" y="18128325"/>
-          <a:ext cx="750" cy="474000"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>115050</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A79CA28-8919-4A65-AE1A-F34132F51BF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3981450" y="16478250"/>
-          <a:ext cx="1620000" cy="720000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>アクセル</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>or</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ブレーキ</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676650</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>24675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863C5D21-57BF-48DD-8990-5D6B57E173E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="2"/>
-          <a:endCxn id="245" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4791450" y="17198250"/>
-          <a:ext cx="9525" cy="708750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676650</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>15150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>375</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12114FFE-5D7A-4B14-8842-2F7F9A0BDAE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4791450" y="15759975"/>
-          <a:ext cx="9525" cy="718275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11639,8 +11499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC308731-C669-4739-A7D1-BE7D37C01AED}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12572,10 +12432,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9406D517-25AD-4FF9-AEB9-BCD234D599C2}">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12865,38 +12725,47 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
+      <c r="B60" s="1"/>
       <c r="N60" s="3"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
+      <c r="B61" s="1"/>
       <c r="N61" s="3"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
+      <c r="B62" s="1"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
+      <c r="B63" s="1"/>
       <c r="N63" s="3"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A64" s="2"/>
+      <c r="B64" s="1"/>
       <c r="N64" s="3"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A65" s="2"/>
+      <c r="B65" s="1"/>
       <c r="N65" s="3"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
+      <c r="B66" s="1"/>
       <c r="N66" s="3"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A67" s="2"/>
+      <c r="B67" s="1"/>
       <c r="N67" s="3"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A68" s="2"/>
+      <c r="B68" s="1"/>
       <c r="N68" s="3"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.4">
@@ -12975,53 +12844,21 @@
       <c r="A87" s="2"/>
       <c r="N87" s="3"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
-      <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A92" s="2"/>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A93" s="2"/>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A94" s="2"/>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A95" s="2"/>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="6"/>
+    <row r="88" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
